--- a/3DRpgDemo/配置工具/配置Excel/Enemy_敌人表.xlsx
+++ b/3DRpgDemo/配置工具/配置Excel/Enemy_敌人表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityDemo\Soul-like-Arena\3DRpgDemo\配置工具\配置Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E400C2A-FDD4-4920-AB90-ECB639638598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B6976-BF28-4924-8351-33444762D0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6855" yWindow="1695" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>pClass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -615,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,7 +645,7 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,13 +659,16 @@
         <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -667,13 +682,16 @@
         <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -689,11 +707,14 @@
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -709,11 +730,14 @@
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -727,13 +751,16 @@
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -747,13 +774,16 @@
         <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -767,16 +797,23 @@
         <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
